--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Kremen1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Kremen1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H2">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.905964</v>
+        <v>5.125314333333333</v>
       </c>
       <c r="N2">
-        <v>14.717892</v>
+        <v>15.375943</v>
       </c>
       <c r="O2">
-        <v>0.134708814573686</v>
+        <v>0.08826884604112728</v>
       </c>
       <c r="P2">
-        <v>0.1347088145736859</v>
+        <v>0.08826884604112729</v>
       </c>
       <c r="Q2">
-        <v>0.203563164252</v>
+        <v>0.904260916268111</v>
       </c>
       <c r="R2">
-        <v>1.832068478268</v>
+        <v>8.138348246412999</v>
       </c>
       <c r="S2">
-        <v>0.001492436144437819</v>
+        <v>0.00402477704869312</v>
       </c>
       <c r="T2">
-        <v>0.001492436144437819</v>
+        <v>0.00402477704869312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H3">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I3">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J3">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.314421</v>
       </c>
       <c r="O3">
-        <v>0.3689867994094882</v>
+        <v>0.2314334425203181</v>
       </c>
       <c r="P3">
-        <v>0.3689867994094881</v>
+        <v>0.2314334425203182</v>
       </c>
       <c r="Q3">
-        <v>0.5575887568509998</v>
+        <v>2.370895578390111</v>
       </c>
       <c r="R3">
-        <v>5.018298811658999</v>
+        <v>21.338060205511</v>
       </c>
       <c r="S3">
-        <v>0.004087997047571965</v>
+        <v>0.01055262473151415</v>
       </c>
       <c r="T3">
-        <v>0.004087997047571966</v>
+        <v>0.01055262473151415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H4">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I4">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J4">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.987676</v>
+        <v>37.71310533333334</v>
       </c>
       <c r="N4">
-        <v>47.963028</v>
+        <v>113.139316</v>
       </c>
       <c r="O4">
-        <v>0.4389923941040272</v>
+        <v>0.6495001227048286</v>
       </c>
       <c r="P4">
-        <v>0.4389923941040271</v>
+        <v>0.6495001227048286</v>
       </c>
       <c r="Q4">
-        <v>0.6633766402679999</v>
+        <v>6.653735744995112</v>
       </c>
       <c r="R4">
-        <v>5.970389762412</v>
+        <v>59.883621704956</v>
       </c>
       <c r="S4">
-        <v>0.004863587569733707</v>
+        <v>0.02961512814801917</v>
       </c>
       <c r="T4">
-        <v>0.004863587569733707</v>
+        <v>0.02961512814801917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H5">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I5">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J5">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.087247</v>
+        <v>1.788256333333333</v>
       </c>
       <c r="N5">
-        <v>6.261741</v>
+        <v>5.364769</v>
       </c>
       <c r="O5">
-        <v>0.05731199191279886</v>
+        <v>0.03079758873372595</v>
       </c>
       <c r="P5">
-        <v>0.05731199191279884</v>
+        <v>0.03079758873372595</v>
       </c>
       <c r="Q5">
-        <v>0.086606139771</v>
+        <v>0.3155026609754444</v>
       </c>
       <c r="R5">
-        <v>0.7794552579389999</v>
+        <v>2.839523948779</v>
       </c>
       <c r="S5">
-        <v>0.0006349583619385314</v>
+        <v>0.001404271539166107</v>
       </c>
       <c r="T5">
-        <v>0.0006349583619385314</v>
+        <v>0.001404271539166108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.89553</v>
       </c>
       <c r="I6">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J6">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.905964</v>
+        <v>5.125314333333333</v>
       </c>
       <c r="N6">
-        <v>14.717892</v>
+        <v>15.375943</v>
       </c>
       <c r="O6">
-        <v>0.134708814573686</v>
+        <v>0.08826884604112728</v>
       </c>
       <c r="P6">
-        <v>0.1347088145736859</v>
+        <v>0.08826884604112729</v>
       </c>
       <c r="Q6">
-        <v>17.81769264697333</v>
+        <v>18.61433869275444</v>
       </c>
       <c r="R6">
-        <v>160.35923382276</v>
+        <v>167.52904823479</v>
       </c>
       <c r="S6">
-        <v>0.1306315345143084</v>
+        <v>0.08285060406722834</v>
       </c>
       <c r="T6">
-        <v>0.1306315345143084</v>
+        <v>0.08285060406722836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.89553</v>
       </c>
       <c r="I7">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J7">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>40.314421</v>
       </c>
       <c r="O7">
-        <v>0.3689867994094882</v>
+        <v>0.2314334425203181</v>
       </c>
       <c r="P7">
-        <v>0.3689867994094881</v>
+        <v>0.2314334425203182</v>
       </c>
       <c r="Q7">
         <v>48.80522038201444</v>
@@ -883,10 +883,10 @@
         <v>439.24698343813</v>
       </c>
       <c r="S7">
-        <v>0.3578185434630081</v>
+        <v>0.2172272707092212</v>
       </c>
       <c r="T7">
-        <v>0.3578185434630081</v>
+        <v>0.2172272707092213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>10.89553</v>
       </c>
       <c r="I8">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J8">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.987676</v>
+        <v>37.71310533333334</v>
       </c>
       <c r="N8">
-        <v>47.963028</v>
+        <v>113.139316</v>
       </c>
       <c r="O8">
-        <v>0.4389923941040272</v>
+        <v>0.6495001227048286</v>
       </c>
       <c r="P8">
-        <v>0.4389923941040271</v>
+        <v>0.6495001227048286</v>
       </c>
       <c r="Q8">
-        <v>58.06473449609334</v>
+        <v>136.9680901841645</v>
       </c>
       <c r="R8">
-        <v>522.5826104648401</v>
+        <v>1232.71281165748</v>
       </c>
       <c r="S8">
-        <v>0.4257052536866517</v>
+        <v>0.6096315962118899</v>
       </c>
       <c r="T8">
-        <v>0.4257052536866516</v>
+        <v>0.6096315962118899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>10.89553</v>
       </c>
       <c r="I9">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J9">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.087247</v>
+        <v>1.788256333333333</v>
       </c>
       <c r="N9">
-        <v>6.261741</v>
+        <v>5.364769</v>
       </c>
       <c r="O9">
-        <v>0.05731199191279886</v>
+        <v>0.03079758873372595</v>
       </c>
       <c r="P9">
-        <v>0.05731199191279884</v>
+        <v>0.03079758873372595</v>
       </c>
       <c r="Q9">
-        <v>7.580554101970002</v>
+        <v>6.494666842507778</v>
       </c>
       <c r="R9">
-        <v>68.22498691773001</v>
+        <v>58.45200158257001</v>
       </c>
       <c r="S9">
-        <v>0.05557730927507554</v>
+        <v>0.02890712799411005</v>
       </c>
       <c r="T9">
-        <v>0.05557730927507554</v>
+        <v>0.02890712799411006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H10">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I10">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J10">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.905964</v>
+        <v>5.125314333333333</v>
       </c>
       <c r="N10">
-        <v>14.717892</v>
+        <v>15.375943</v>
       </c>
       <c r="O10">
-        <v>0.134708814573686</v>
+        <v>0.08826884604112728</v>
       </c>
       <c r="P10">
-        <v>0.1347088145736859</v>
+        <v>0.08826884604112729</v>
       </c>
       <c r="Q10">
-        <v>0.3525638322173333</v>
+        <v>0.3130747007373333</v>
       </c>
       <c r="R10">
-        <v>3.173074489956</v>
+        <v>2.817672306636</v>
       </c>
       <c r="S10">
-        <v>0.002584843914939731</v>
+        <v>0.001393464925205816</v>
       </c>
       <c r="T10">
-        <v>0.002584843914939731</v>
+        <v>0.001393464925205817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H11">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I11">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J11">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>40.314421</v>
       </c>
       <c r="O11">
-        <v>0.3689867994094882</v>
+        <v>0.2314334425203181</v>
       </c>
       <c r="P11">
-        <v>0.3689867994094881</v>
+        <v>0.2314334425203182</v>
       </c>
       <c r="Q11">
-        <v>0.9657229962947774</v>
+        <v>0.8208553641213332</v>
       </c>
       <c r="R11">
-        <v>8.691506966652998</v>
+        <v>7.387698277091999</v>
       </c>
       <c r="S11">
-        <v>0.00708025889890811</v>
+        <v>0.003653547079582747</v>
       </c>
       <c r="T11">
-        <v>0.007080258898908112</v>
+        <v>0.003653547079582748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H12">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I12">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J12">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.987676</v>
+        <v>37.71310533333334</v>
       </c>
       <c r="N12">
-        <v>47.963028</v>
+        <v>113.139316</v>
       </c>
       <c r="O12">
-        <v>0.4389923941040272</v>
+        <v>0.6495001227048286</v>
       </c>
       <c r="P12">
-        <v>0.4389923941040271</v>
+        <v>0.6495001227048286</v>
       </c>
       <c r="Q12">
-        <v>1.148943677289333</v>
+        <v>2.303667326181333</v>
       </c>
       <c r="R12">
-        <v>10.340493095604</v>
+        <v>20.733005935632</v>
       </c>
       <c r="S12">
-        <v>0.008423552847641763</v>
+        <v>0.01025339834491954</v>
       </c>
       <c r="T12">
-        <v>0.008423552847641765</v>
+        <v>0.01025339834491954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H13">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I13">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J13">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.087247</v>
+        <v>1.788256333333333</v>
       </c>
       <c r="N13">
-        <v>6.261741</v>
+        <v>5.364769</v>
       </c>
       <c r="O13">
-        <v>0.05731199191279886</v>
+        <v>0.03079758873372595</v>
       </c>
       <c r="P13">
-        <v>0.05731199191279884</v>
+        <v>0.03079758873372595</v>
       </c>
       <c r="Q13">
-        <v>0.149998614157</v>
+        <v>0.1092338498653333</v>
       </c>
       <c r="R13">
-        <v>1.349987527413</v>
+        <v>0.983104648788</v>
       </c>
       <c r="S13">
-        <v>0.001099724275784781</v>
+        <v>0.0004861892004497858</v>
       </c>
       <c r="T13">
-        <v>0.001099724275784781</v>
+        <v>0.0004861892004497859</v>
       </c>
     </row>
   </sheetData>
